--- a/BvIDexportL2.1.xlsx
+++ b/BvIDexportL2.1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">NewBvDIDs</t>
   </si>
@@ -23,6 +23,9 @@
     <t xml:space="preserve">FI01126502</t>
   </si>
   <si>
+    <t xml:space="preserve">NL34275688</t>
+  </si>
+  <si>
     <t xml:space="preserve">DE8170085484</t>
   </si>
   <si>
@@ -33,6 +36,9 @@
   </si>
   <si>
     <t xml:space="preserve">NL34140812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US133277535L</t>
   </si>
 </sst>
 </file>
@@ -399,6 +405,16 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
